--- a/data/trans_orig/OT1-Clase-trans_orig.xlsx
+++ b/data/trans_orig/OT1-Clase-trans_orig.xlsx
@@ -6955,7 +6955,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -15926,7 +15926,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -24897,7 +24897,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
